--- a/zss.test/src/test/java/org/zkoss/zss/issue/book/549-large-text-wrap-grid-top-pdf.xlsx
+++ b/zss.test/src/test/java/org/zkoss/zss/issue/book/549-large-text-wrap-grid-top-pdf.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>b222</t>
   </si>
@@ -33,10 +33,10 @@
     <t>agaa</t>
   </si>
   <si>
-    <t>* You should see A1 show a cliped 36 point 'agaa' text</t>
-  </si>
-  <si>
-    <t>j1111</t>
+    <t>* You should see this description is vertically aligned on top of this cell.
+ ----
+ ----
+ ----</t>
   </si>
 </sst>
 </file>
@@ -381,13 +381,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -397,11 +399,8 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -409,7 +408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="120">
+    <row r="4" spans="1:3" ht="180">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -430,6 +429,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
